--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Ntn4-Unc5a.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Ntn4-Unc5a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Unc5a</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>12.1340844914465</v>
+        <v>1.664730333333334</v>
       </c>
       <c r="H2">
-        <v>12.1340844914465</v>
+        <v>4.994191000000001</v>
       </c>
       <c r="I2">
-        <v>0.3873546008587465</v>
+        <v>0.05028984785586801</v>
       </c>
       <c r="J2">
-        <v>0.3873546008587465</v>
+        <v>0.05028984785586801</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.79284900584683</v>
+        <v>2.322965</v>
       </c>
       <c r="N2">
-        <v>1.79284900584683</v>
+        <v>6.968895</v>
       </c>
       <c r="O2">
-        <v>0.2482622003743678</v>
+        <v>0.2900587755589272</v>
       </c>
       <c r="P2">
-        <v>0.2482622003743678</v>
+        <v>0.2900587755589272</v>
       </c>
       <c r="Q2">
-        <v>21.7545813173513</v>
+        <v>3.867110298771667</v>
       </c>
       <c r="R2">
-        <v>21.7545813173513</v>
+        <v>34.803992688945</v>
       </c>
       <c r="S2">
-        <v>0.09616550553432736</v>
+        <v>0.01458701169211782</v>
       </c>
       <c r="T2">
-        <v>0.09616550553432736</v>
+        <v>0.01458701169211782</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>12.1340844914465</v>
+        <v>1.664730333333334</v>
       </c>
       <c r="H3">
-        <v>12.1340844914465</v>
+        <v>4.994191000000001</v>
       </c>
       <c r="I3">
-        <v>0.3873546008587465</v>
+        <v>0.05028984785586801</v>
       </c>
       <c r="J3">
-        <v>0.3873546008587465</v>
+        <v>0.05028984785586801</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.60337363657116</v>
+        <v>1.626459</v>
       </c>
       <c r="N3">
-        <v>1.60337363657116</v>
+        <v>4.879377</v>
       </c>
       <c r="O3">
-        <v>0.222024869768322</v>
+        <v>0.2030890289077955</v>
       </c>
       <c r="P3">
-        <v>0.222024869768322</v>
+        <v>0.2030890289077955</v>
       </c>
       <c r="Q3">
-        <v>19.45547117751229</v>
+        <v>2.707615633223</v>
       </c>
       <c r="R3">
-        <v>19.45547117751229</v>
+        <v>24.368540699007</v>
       </c>
       <c r="S3">
-        <v>0.08600235480982354</v>
+        <v>0.01021331636496902</v>
       </c>
       <c r="T3">
-        <v>0.08600235480982354</v>
+        <v>0.01021331636496902</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>12.1340844914465</v>
+        <v>1.664730333333334</v>
       </c>
       <c r="H4">
-        <v>12.1340844914465</v>
+        <v>4.994191000000001</v>
       </c>
       <c r="I4">
-        <v>0.3873546008587465</v>
+        <v>0.05028984785586801</v>
       </c>
       <c r="J4">
-        <v>0.3873546008587465</v>
+        <v>0.05028984785586801</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.773401837596184</v>
+        <v>0.904191</v>
       </c>
       <c r="N4">
-        <v>0.773401837596184</v>
+        <v>2.712573</v>
       </c>
       <c r="O4">
-        <v>0.1070957126612658</v>
+        <v>0.1129024907096758</v>
       </c>
       <c r="P4">
-        <v>0.1070957126612658</v>
+        <v>0.1129024907096758</v>
       </c>
       <c r="Q4">
-        <v>9.38452324323208</v>
+        <v>1.505234184827</v>
       </c>
       <c r="R4">
-        <v>9.38452324323208</v>
+        <v>13.547107663443</v>
       </c>
       <c r="S4">
-        <v>0.0414840170315876</v>
+        <v>0.005677849080338146</v>
       </c>
       <c r="T4">
-        <v>0.0414840170315876</v>
+        <v>0.005677849080338145</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>12.1340844914465</v>
+        <v>1.664730333333334</v>
       </c>
       <c r="H5">
-        <v>12.1340844914465</v>
+        <v>4.994191000000001</v>
       </c>
       <c r="I5">
-        <v>0.3873546008587465</v>
+        <v>0.05028984785586801</v>
       </c>
       <c r="J5">
-        <v>0.3873546008587465</v>
+        <v>0.05028984785586801</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.05197028206921</v>
+        <v>3.154986</v>
       </c>
       <c r="N5">
-        <v>3.05197028206921</v>
+        <v>9.464957999999999</v>
       </c>
       <c r="O5">
-        <v>0.4226172171960444</v>
+        <v>0.3939497048236015</v>
       </c>
       <c r="P5">
-        <v>0.4226172171960444</v>
+        <v>0.3939497048236015</v>
       </c>
       <c r="Q5">
-        <v>37.0328652680116</v>
+        <v>5.252200895442001</v>
       </c>
       <c r="R5">
-        <v>37.0328652680116</v>
+        <v>47.269808058978</v>
       </c>
       <c r="S5">
-        <v>0.1637027234830079</v>
+        <v>0.01981167071844303</v>
       </c>
       <c r="T5">
-        <v>0.1637027234830079</v>
+        <v>0.01981167071844303</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.1914360123653</v>
+        <v>12.206517</v>
       </c>
       <c r="H6">
-        <v>19.1914360123653</v>
+        <v>36.619551</v>
       </c>
       <c r="I6">
-        <v>0.6126453991412535</v>
+        <v>0.3687467396301421</v>
       </c>
       <c r="J6">
-        <v>0.6126453991412535</v>
+        <v>0.3687467396301421</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.79284900584683</v>
+        <v>2.322965</v>
       </c>
       <c r="N6">
-        <v>1.79284900584683</v>
+        <v>6.968895</v>
       </c>
       <c r="O6">
-        <v>0.2482622003743678</v>
+        <v>0.2900587755589272</v>
       </c>
       <c r="P6">
-        <v>0.2482622003743678</v>
+        <v>0.2900587755589272</v>
       </c>
       <c r="Q6">
-        <v>34.40734697554218</v>
+        <v>28.355311762905</v>
       </c>
       <c r="R6">
-        <v>34.40734697554218</v>
+        <v>255.197805866145</v>
       </c>
       <c r="S6">
-        <v>0.1520966948400404</v>
+        <v>0.1069582277884656</v>
       </c>
       <c r="T6">
-        <v>0.1520966948400404</v>
+        <v>0.1069582277884656</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.1914360123653</v>
+        <v>12.206517</v>
       </c>
       <c r="H7">
-        <v>19.1914360123653</v>
+        <v>36.619551</v>
       </c>
       <c r="I7">
-        <v>0.6126453991412535</v>
+        <v>0.3687467396301421</v>
       </c>
       <c r="J7">
-        <v>0.6126453991412535</v>
+        <v>0.3687467396301421</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.60337363657116</v>
+        <v>1.626459</v>
       </c>
       <c r="N7">
-        <v>1.60337363657116</v>
+        <v>4.879377</v>
       </c>
       <c r="O7">
-        <v>0.222024869768322</v>
+        <v>0.2030890289077955</v>
       </c>
       <c r="P7">
-        <v>0.222024869768322</v>
+        <v>0.2030890289077955</v>
       </c>
       <c r="Q7">
-        <v>30.77104255016887</v>
+        <v>19.853399433303</v>
       </c>
       <c r="R7">
-        <v>30.77104255016887</v>
+        <v>178.680594899727</v>
       </c>
       <c r="S7">
-        <v>0.1360225149584985</v>
+        <v>0.07488841726440128</v>
       </c>
       <c r="T7">
-        <v>0.1360225149584985</v>
+        <v>0.07488841726440128</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.1914360123653</v>
+        <v>12.206517</v>
       </c>
       <c r="H8">
-        <v>19.1914360123653</v>
+        <v>36.619551</v>
       </c>
       <c r="I8">
-        <v>0.6126453991412535</v>
+        <v>0.3687467396301421</v>
       </c>
       <c r="J8">
-        <v>0.6126453991412535</v>
+        <v>0.3687467396301421</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.773401837596184</v>
+        <v>0.904191</v>
       </c>
       <c r="N8">
-        <v>0.773401837596184</v>
+        <v>2.712573</v>
       </c>
       <c r="O8">
-        <v>0.1070957126612658</v>
+        <v>0.1129024907096758</v>
       </c>
       <c r="P8">
-        <v>0.1070957126612658</v>
+        <v>0.1129024907096758</v>
       </c>
       <c r="Q8">
-        <v>14.84269187807291</v>
+        <v>11.037022812747</v>
       </c>
       <c r="R8">
-        <v>14.84269187807291</v>
+        <v>99.333205314723</v>
       </c>
       <c r="S8">
-        <v>0.06561169562967815</v>
+        <v>0.04163242534531535</v>
       </c>
       <c r="T8">
-        <v>0.06561169562967815</v>
+        <v>0.04163242534531535</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>12.206517</v>
+      </c>
+      <c r="H9">
+        <v>36.619551</v>
+      </c>
+      <c r="I9">
+        <v>0.3687467396301421</v>
+      </c>
+      <c r="J9">
+        <v>0.3687467396301421</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.154986</v>
+      </c>
+      <c r="N9">
+        <v>9.464957999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.3939497048236015</v>
+      </c>
+      <c r="P9">
+        <v>0.3939497048236015</v>
+      </c>
+      <c r="Q9">
+        <v>38.51139024376199</v>
+      </c>
+      <c r="R9">
+        <v>346.602512193858</v>
+      </c>
+      <c r="S9">
+        <v>0.1452676692319599</v>
+      </c>
+      <c r="T9">
+        <v>0.1452676692319599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>19.23146433333334</v>
+      </c>
+      <c r="H10">
+        <v>57.69439300000001</v>
+      </c>
+      <c r="I10">
+        <v>0.58096341251399</v>
+      </c>
+      <c r="J10">
+        <v>0.58096341251399</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.322965</v>
+      </c>
+      <c r="N10">
+        <v>6.968895</v>
+      </c>
+      <c r="O10">
+        <v>0.2900587755589272</v>
+      </c>
+      <c r="P10">
+        <v>0.2900587755589272</v>
+      </c>
+      <c r="Q10">
+        <v>44.67401854508167</v>
+      </c>
+      <c r="R10">
+        <v>402.066166905735</v>
+      </c>
+      <c r="S10">
+        <v>0.1685135360783439</v>
+      </c>
+      <c r="T10">
+        <v>0.1685135360783439</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>19.1914360123653</v>
-      </c>
-      <c r="H9">
-        <v>19.1914360123653</v>
-      </c>
-      <c r="I9">
-        <v>0.6126453991412535</v>
-      </c>
-      <c r="J9">
-        <v>0.6126453991412535</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>3.05197028206921</v>
-      </c>
-      <c r="N9">
-        <v>3.05197028206921</v>
-      </c>
-      <c r="O9">
-        <v>0.4226172171960444</v>
-      </c>
-      <c r="P9">
-        <v>0.4226172171960444</v>
-      </c>
-      <c r="Q9">
-        <v>58.57169237997172</v>
-      </c>
-      <c r="R9">
-        <v>58.57169237997172</v>
-      </c>
-      <c r="S9">
-        <v>0.2589144937130364</v>
-      </c>
-      <c r="T9">
-        <v>0.2589144937130364</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>19.23146433333334</v>
+      </c>
+      <c r="H11">
+        <v>57.69439300000001</v>
+      </c>
+      <c r="I11">
+        <v>0.58096341251399</v>
+      </c>
+      <c r="J11">
+        <v>0.58096341251399</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.626459</v>
+      </c>
+      <c r="N11">
+        <v>4.879377</v>
+      </c>
+      <c r="O11">
+        <v>0.2030890289077955</v>
+      </c>
+      <c r="P11">
+        <v>0.2030890289077955</v>
+      </c>
+      <c r="Q11">
+        <v>31.279188248129</v>
+      </c>
+      <c r="R11">
+        <v>281.512694233161</v>
+      </c>
+      <c r="S11">
+        <v>0.1179872952784252</v>
+      </c>
+      <c r="T11">
+        <v>0.1179872952784252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>19.23146433333334</v>
+      </c>
+      <c r="H12">
+        <v>57.69439300000001</v>
+      </c>
+      <c r="I12">
+        <v>0.58096341251399</v>
+      </c>
+      <c r="J12">
+        <v>0.58096341251399</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.904191</v>
+      </c>
+      <c r="N12">
+        <v>2.712573</v>
+      </c>
+      <c r="O12">
+        <v>0.1129024907096758</v>
+      </c>
+      <c r="P12">
+        <v>0.1129024907096758</v>
+      </c>
+      <c r="Q12">
+        <v>17.388916967021</v>
+      </c>
+      <c r="R12">
+        <v>156.500252703189</v>
+      </c>
+      <c r="S12">
+        <v>0.06559221628402229</v>
+      </c>
+      <c r="T12">
+        <v>0.06559221628402227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>19.23146433333334</v>
+      </c>
+      <c r="H13">
+        <v>57.69439300000001</v>
+      </c>
+      <c r="I13">
+        <v>0.58096341251399</v>
+      </c>
+      <c r="J13">
+        <v>0.58096341251399</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.154986</v>
+      </c>
+      <c r="N13">
+        <v>9.464957999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.3939497048236015</v>
+      </c>
+      <c r="P13">
+        <v>0.3939497048236015</v>
+      </c>
+      <c r="Q13">
+        <v>60.675000731166</v>
+      </c>
+      <c r="R13">
+        <v>546.075006580494</v>
+      </c>
+      <c r="S13">
+        <v>0.2288703648731986</v>
+      </c>
+      <c r="T13">
+        <v>0.2288703648731986</v>
       </c>
     </row>
   </sheetData>
